--- a/2调整单接口/ycd.xlsx
+++ b/2调整单接口/ycd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30140" windowHeight="15320"/>
+    <workbookView windowHeight="15320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <t>SL</t>
   </si>
   <si>
-    <t>115020001990560</t>
+    <t>116021341320830</t>
   </si>
 </sst>
 </file>
@@ -31,11 +31,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,10 +44,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -60,22 +83,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,23 +165,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,76 +189,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,49 +204,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,31 +360,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,18 +378,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -306,78 +385,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,30 +395,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -429,6 +412,45 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,177 +495,165 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -967,12 +977,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.1634615384615" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -983,12 +993,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" ht="17.6" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>7</v>
+      <c r="B2" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/2调整单接口/ycd.xlsx
+++ b/2调整单接口/ycd.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15320"/>
+    <workbookView windowWidth="31920" windowHeight="14720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
     <t>SKU</t>
   </si>
@@ -22,7 +23,16 @@
     <t>SL</t>
   </si>
   <si>
-    <t>116021341320830</t>
+    <t>114021438550320</t>
+  </si>
+  <si>
+    <t>116011328670420</t>
+  </si>
+  <si>
+    <t>116011331200430</t>
+  </si>
+  <si>
+    <t>116011331700430</t>
   </si>
 </sst>
 </file>
@@ -30,9 +40,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -52,7 +62,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -60,17 +92,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -82,52 +106,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -136,8 +114,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,7 +154,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,30 +192,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,12 +214,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -222,150 +382,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -373,12 +389,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,15 +405,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -440,17 +441,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,28 +482,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,85 +510,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,61 +597,61 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -654,6 +664,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -974,13 +987,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="17.1634615384615" customWidth="1"/>
   </cols>
@@ -998,11 +1011,87 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="17.4615384615385" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/2调整单接口/ycd.xlsx
+++ b/2调整单接口/ycd.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31920" windowHeight="14720"/>
+    <workbookView windowHeight="15260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
   <si>
     <t>SKU</t>
   </si>
@@ -23,16 +24,235 @@
     <t>SL</t>
   </si>
   <si>
-    <t>114021438550320</t>
-  </si>
-  <si>
-    <t>116011328670420</t>
-  </si>
-  <si>
-    <t>116011331200430</t>
-  </si>
-  <si>
-    <t>116011331700430</t>
+    <t xml:space="preserve">115020001510560 </t>
+  </si>
+  <si>
+    <t>总仓</t>
+  </si>
+  <si>
+    <t>Dohia月罗成品仓</t>
+  </si>
+  <si>
+    <t>Dohia月罗残次品仓</t>
+  </si>
+  <si>
+    <t>Dohia月罗成品仓-分仓</t>
+  </si>
+  <si>
+    <t>Dohia月罗成品仓-分仓A</t>
+  </si>
+  <si>
+    <t>Dohia月罗临时仓</t>
+  </si>
+  <si>
+    <t>Dohia月罗退货仓</t>
+  </si>
+  <si>
+    <t>Dohia月罗样品仓</t>
+  </si>
+  <si>
+    <t>Dohia上海长沙临时仓</t>
+  </si>
+  <si>
+    <t>Dohia上海（南通）仓</t>
+  </si>
+  <si>
+    <t>Dohia上海(京东)成品仓</t>
+  </si>
+  <si>
+    <t>Dohia京东-北京仓</t>
+  </si>
+  <si>
+    <t>Dohia京东-成都仓</t>
+  </si>
+  <si>
+    <t>Dohia京东-德州仓</t>
+  </si>
+  <si>
+    <t>Dohia京东-固安仓</t>
+  </si>
+  <si>
+    <t>Dohia京东-广州仓</t>
+  </si>
+  <si>
+    <t>Dohia京东-上海仓</t>
+  </si>
+  <si>
+    <t>Dohia京东-沈阳仓</t>
+  </si>
+  <si>
+    <t>Dohia京东退货仓</t>
+  </si>
+  <si>
+    <t>Dohia京东-武汉仓</t>
+  </si>
+  <si>
+    <t>Dohia京东-西安仓</t>
+  </si>
+  <si>
+    <t>Dohia唯品会-北京仓</t>
+  </si>
+  <si>
+    <t>Dohia唯品会-成都仓</t>
+  </si>
+  <si>
+    <t>Dohia唯品会-广州仓</t>
+  </si>
+  <si>
+    <t>Dohia唯品会-华中仓</t>
+  </si>
+  <si>
+    <t>Dohia唯品会-上海仓</t>
+  </si>
+  <si>
+    <t>Dohia唯品会-沈阳仓</t>
+  </si>
+  <si>
+    <t>Dohia菜鸟-北京仓</t>
+  </si>
+  <si>
+    <t>Dohia菜鸟-成都仓</t>
+  </si>
+  <si>
+    <t>Dohia菜鸟-惠州仓</t>
+  </si>
+  <si>
+    <t>Dohia菜鸟-无锡仓</t>
+  </si>
+  <si>
+    <t>Dohia菜鸟-武汉仓</t>
+  </si>
+  <si>
+    <t>东莞电商成品仓</t>
+  </si>
+  <si>
+    <t>乐倍康京东自营仓</t>
+  </si>
+  <si>
+    <t>乐倍康电商成品仓</t>
+  </si>
+  <si>
+    <t>长沙产业园套件仓</t>
+  </si>
+  <si>
+    <t>长沙产业园芯类仓</t>
+  </si>
+  <si>
+    <t>长沙产业园电商仓</t>
+  </si>
+  <si>
+    <t>Dohia上海长沙冻结仓</t>
+  </si>
+  <si>
+    <t>Dohia上海（南通）冻结仓</t>
+  </si>
+  <si>
+    <t>美眠康南通成品仓</t>
+  </si>
+  <si>
+    <t>阿里巴巴成品仓</t>
+  </si>
+  <si>
+    <t>Dohia美眠康成品仓</t>
+  </si>
+  <si>
+    <t>乐倍康电商返修仓</t>
+  </si>
+  <si>
+    <t>唯品会JITX仓</t>
+  </si>
+  <si>
+    <t>乐倍康次品仓</t>
+  </si>
+  <si>
+    <t>抖音1店-长沙套件仓</t>
+  </si>
+  <si>
+    <t>抖音1店-长沙芯类仓</t>
+  </si>
+  <si>
+    <t>抖音1店-南通多喜爱仓</t>
+  </si>
+  <si>
+    <t>抖音1店-南通美眠康仓</t>
+  </si>
+  <si>
+    <t>抖音2店-长沙套件仓</t>
+  </si>
+  <si>
+    <t>抖音2店-长沙芯类仓</t>
+  </si>
+  <si>
+    <t>抖音2店-南通多喜爱仓</t>
+  </si>
+  <si>
+    <t>抖音2店-南通美眠康仓</t>
+  </si>
+  <si>
+    <t>长沙退货仓</t>
+  </si>
+  <si>
+    <t>南通退货仓</t>
+  </si>
+  <si>
+    <t>丝丝美台州仓</t>
+  </si>
+  <si>
+    <t>装饰画淘宝店长沙仓</t>
+  </si>
+  <si>
+    <t>Dohia南通退货仓</t>
+  </si>
+  <si>
+    <t>抖音3店-南通多喜爱仓</t>
+  </si>
+  <si>
+    <t>抖音3店-长沙套件仓</t>
+  </si>
+  <si>
+    <t>丝丝美仓</t>
+  </si>
+  <si>
+    <t>Dohia-猫超</t>
+  </si>
+  <si>
+    <t>抖音4店-长沙仓</t>
+  </si>
+  <si>
+    <t>抖音4店-南通仓</t>
+  </si>
+  <si>
+    <t>南通残次仓</t>
+  </si>
+  <si>
+    <t>抖音快乐购-长沙仓</t>
+  </si>
+  <si>
+    <t>抖音快乐购-南通仓</t>
+  </si>
+  <si>
+    <t>淘分销店-长沙仓</t>
+  </si>
+  <si>
+    <t>淘分销店-南通仓</t>
+  </si>
+  <si>
+    <t>快手小店-长沙仓</t>
+  </si>
+  <si>
+    <t>快手小店-南通仓</t>
+  </si>
+  <si>
+    <t>抖音5店-南通仓</t>
+  </si>
+  <si>
+    <t>抖音5店-长沙仓</t>
+  </si>
+  <si>
+    <t>抖音6店-南通仓</t>
+  </si>
+  <si>
+    <t>抖音6店-长沙套件仓</t>
   </si>
 </sst>
 </file>
@@ -40,9 +260,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -62,14 +282,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,7 +312,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,6 +381,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -106,11 +403,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,88 +418,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -220,31 +440,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,31 +554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,7 +566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,13 +578,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,79 +608,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,8 +631,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,21 +695,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -481,177 +725,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -664,9 +884,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -987,13 +1204,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="17.1634615384615" customWidth="1"/>
   </cols>
@@ -1011,31 +1228,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1047,51 +1240,644 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A1" sqref="A1:B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="17.4615384615385" customWidth="1"/>
+    <col min="2" max="2" width="28.7692307692308" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1">
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/2调整单接口/ycd.xlsx
+++ b/2调整单接口/ycd.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15260"/>
+    <workbookView windowHeight="15200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
   <si>
     <t>SKU</t>
   </si>
@@ -24,7 +24,7 @@
     <t>SL</t>
   </si>
   <si>
-    <t xml:space="preserve">115020001510560 </t>
+    <t>114021419670430</t>
   </si>
   <si>
     <t>总仓</t>
@@ -253,6 +253,123 @@
   </si>
   <si>
     <t>抖音6店-长沙套件仓</t>
+  </si>
+  <si>
+    <t>gsn</t>
+  </si>
+  <si>
+    <t>goods_name</t>
+  </si>
+  <si>
+    <t>sum(order_goods.goods_number)</t>
+  </si>
+  <si>
+    <t>114021415390250</t>
+  </si>
+  <si>
+    <t>171237粉红弗洛拉</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>114021423600150</t>
+  </si>
+  <si>
+    <t>171248赫尔辛格II</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>114021423670150</t>
+  </si>
+  <si>
+    <t>211110摩卡</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>114021423960150</t>
+  </si>
+  <si>
+    <t>211147心彩</t>
+  </si>
+  <si>
+    <t>115011324010250</t>
+  </si>
+  <si>
+    <t>202443丽莎提花拉链款大豆子母被</t>
+  </si>
+  <si>
+    <t>115020000510460</t>
+  </si>
+  <si>
+    <t>203134乐享绗绣对枕HⅡ</t>
+  </si>
+  <si>
+    <t>116011325930420</t>
+  </si>
+  <si>
+    <t>192132倾城夏日夏薄被</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>116011329930420</t>
+  </si>
+  <si>
+    <t>212232赫尔辛格夏薄被</t>
+  </si>
+  <si>
+    <t>116011330220420</t>
+  </si>
+  <si>
+    <t>212274缤果夏薄被</t>
+  </si>
+  <si>
+    <t>116011331200430</t>
+  </si>
+  <si>
+    <t>212050莓莓果果夏薄被</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>116011334190430</t>
+  </si>
+  <si>
+    <t>212377甜蜜初遇夏薄被</t>
+  </si>
+  <si>
+    <t>116011388600130</t>
+  </si>
+  <si>
+    <t>218201彩色仙人掌冰丝席</t>
+  </si>
+  <si>
+    <t>116020000080870</t>
+  </si>
+  <si>
+    <t>204036多彩水洗立高软垫Ⅱ（绅士灰）</t>
+  </si>
+  <si>
+    <t>116021341080850</t>
+  </si>
+  <si>
+    <t>204028艾森可水洗防滑保护垫</t>
+  </si>
+  <si>
+    <t>116021341320820</t>
+  </si>
+  <si>
+    <t>116021341340830</t>
+  </si>
+  <si>
+    <t>204035多彩水洗立高软垫Ⅱ（鹅黄）</t>
   </si>
 </sst>
 </file>
@@ -260,12 +377,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,8 +391,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -295,9 +412,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,18 +427,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -333,11 +449,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -357,8 +481,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,17 +505,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,28 +548,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -440,25 +564,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,151 +726,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,6 +770,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -657,21 +796,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,17 +824,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -725,147 +838,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -875,15 +999,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1223,11 +1353,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="17.6" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1869,14 +1999,218 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="17.4615384615385" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.3076923076923" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.1538461538462" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/2调整单接口/ycd.xlsx
+++ b/2调整单接口/ycd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15200"/>
+    <workbookView windowHeight="14960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119">
   <si>
     <t>SKU</t>
   </si>
@@ -24,253 +24,256 @@
     <t>SL</t>
   </si>
   <si>
+    <t>114021455310330</t>
+  </si>
+  <si>
+    <t>总仓</t>
+  </si>
+  <si>
+    <t>Dohia月罗成品仓</t>
+  </si>
+  <si>
+    <t>Dohia月罗残次品仓</t>
+  </si>
+  <si>
+    <t>Dohia月罗成品仓-分仓</t>
+  </si>
+  <si>
+    <t>Dohia月罗成品仓-分仓A</t>
+  </si>
+  <si>
+    <t>Dohia月罗临时仓</t>
+  </si>
+  <si>
+    <t>Dohia月罗退货仓</t>
+  </si>
+  <si>
+    <t>Dohia月罗样品仓</t>
+  </si>
+  <si>
+    <t>Dohia上海长沙临时仓</t>
+  </si>
+  <si>
+    <t>Dohia上海（南通）仓</t>
+  </si>
+  <si>
+    <t>Dohia上海(京东)成品仓</t>
+  </si>
+  <si>
+    <t>Dohia京东-北京仓</t>
+  </si>
+  <si>
+    <t>Dohia京东-成都仓</t>
+  </si>
+  <si>
+    <t>Dohia京东-德州仓</t>
+  </si>
+  <si>
+    <t>Dohia京东-固安仓</t>
+  </si>
+  <si>
+    <t>Dohia京东-广州仓</t>
+  </si>
+  <si>
+    <t>Dohia京东-上海仓</t>
+  </si>
+  <si>
+    <t>Dohia京东-沈阳仓</t>
+  </si>
+  <si>
+    <t>Dohia京东退货仓</t>
+  </si>
+  <si>
+    <t>Dohia京东-武汉仓</t>
+  </si>
+  <si>
+    <t>Dohia京东-西安仓</t>
+  </si>
+  <si>
+    <t>Dohia唯品会-北京仓</t>
+  </si>
+  <si>
+    <t>Dohia唯品会-成都仓</t>
+  </si>
+  <si>
+    <t>Dohia唯品会-广州仓</t>
+  </si>
+  <si>
+    <t>Dohia唯品会-华中仓</t>
+  </si>
+  <si>
+    <t>Dohia唯品会-上海仓</t>
+  </si>
+  <si>
+    <t>Dohia唯品会-沈阳仓</t>
+  </si>
+  <si>
+    <t>Dohia菜鸟-北京仓</t>
+  </si>
+  <si>
+    <t>Dohia菜鸟-成都仓</t>
+  </si>
+  <si>
+    <t>Dohia菜鸟-惠州仓</t>
+  </si>
+  <si>
+    <t>Dohia菜鸟-无锡仓</t>
+  </si>
+  <si>
+    <t>Dohia菜鸟-武汉仓</t>
+  </si>
+  <si>
+    <t>东莞电商成品仓</t>
+  </si>
+  <si>
+    <t>乐倍康京东自营仓</t>
+  </si>
+  <si>
+    <t>乐倍康电商成品仓</t>
+  </si>
+  <si>
+    <t>长沙产业园套件仓</t>
+  </si>
+  <si>
+    <t>长沙产业园芯类仓</t>
+  </si>
+  <si>
+    <t>长沙产业园电商仓</t>
+  </si>
+  <si>
+    <t>Dohia上海长沙冻结仓</t>
+  </si>
+  <si>
+    <t>Dohia上海（南通）冻结仓</t>
+  </si>
+  <si>
+    <t>美眠康南通成品仓</t>
+  </si>
+  <si>
+    <t>阿里巴巴成品仓</t>
+  </si>
+  <si>
+    <t>Dohia美眠康成品仓</t>
+  </si>
+  <si>
+    <t>乐倍康电商返修仓</t>
+  </si>
+  <si>
+    <t>唯品会JITX仓</t>
+  </si>
+  <si>
+    <t>乐倍康次品仓</t>
+  </si>
+  <si>
+    <t>抖音1店-长沙套件仓</t>
+  </si>
+  <si>
+    <t>抖音1店-长沙芯类仓</t>
+  </si>
+  <si>
+    <t>抖音1店-南通多喜爱仓</t>
+  </si>
+  <si>
+    <t>抖音1店-南通美眠康仓</t>
+  </si>
+  <si>
+    <t>抖音2店-长沙套件仓</t>
+  </si>
+  <si>
+    <t>抖音2店-长沙芯类仓</t>
+  </si>
+  <si>
+    <t>抖音2店-南通多喜爱仓</t>
+  </si>
+  <si>
+    <t>抖音2店-南通美眠康仓</t>
+  </si>
+  <si>
+    <t>长沙退货仓</t>
+  </si>
+  <si>
+    <t>南通退货仓</t>
+  </si>
+  <si>
+    <t>丝丝美台州仓</t>
+  </si>
+  <si>
+    <t>装饰画淘宝店长沙仓</t>
+  </si>
+  <si>
+    <t>Dohia南通退货仓</t>
+  </si>
+  <si>
+    <t>抖音3店-南通多喜爱仓</t>
+  </si>
+  <si>
+    <t>抖音3店-长沙套件仓</t>
+  </si>
+  <si>
+    <t>丝丝美仓</t>
+  </si>
+  <si>
+    <t>Dohia-猫超</t>
+  </si>
+  <si>
+    <t>抖音4店-长沙仓</t>
+  </si>
+  <si>
+    <t>抖音4店-南通仓</t>
+  </si>
+  <si>
+    <t>南通残次仓</t>
+  </si>
+  <si>
+    <t>抖音快乐购-长沙仓</t>
+  </si>
+  <si>
+    <t>抖音快乐购-南通仓</t>
+  </si>
+  <si>
+    <t>淘分销店-长沙仓</t>
+  </si>
+  <si>
+    <t>淘分销店-南通仓</t>
+  </si>
+  <si>
+    <t>快手小店-长沙仓</t>
+  </si>
+  <si>
+    <t>快手小店-南通仓</t>
+  </si>
+  <si>
+    <t>抖音5店-南通仓</t>
+  </si>
+  <si>
+    <t>抖音5店-长沙仓</t>
+  </si>
+  <si>
+    <t>抖音6店-南通仓</t>
+  </si>
+  <si>
+    <t>抖音6店-长沙套件仓</t>
+  </si>
+  <si>
+    <t>gsn</t>
+  </si>
+  <si>
+    <t>goods_name</t>
+  </si>
+  <si>
+    <t>sum(order_goods.goods_number)</t>
+  </si>
+  <si>
+    <t>114021415390250</t>
+  </si>
+  <si>
+    <t>171237粉红弗洛拉</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>114021419670430</t>
-  </si>
-  <si>
-    <t>总仓</t>
-  </si>
-  <si>
-    <t>Dohia月罗成品仓</t>
-  </si>
-  <si>
-    <t>Dohia月罗残次品仓</t>
-  </si>
-  <si>
-    <t>Dohia月罗成品仓-分仓</t>
-  </si>
-  <si>
-    <t>Dohia月罗成品仓-分仓A</t>
-  </si>
-  <si>
-    <t>Dohia月罗临时仓</t>
-  </si>
-  <si>
-    <t>Dohia月罗退货仓</t>
-  </si>
-  <si>
-    <t>Dohia月罗样品仓</t>
-  </si>
-  <si>
-    <t>Dohia上海长沙临时仓</t>
-  </si>
-  <si>
-    <t>Dohia上海（南通）仓</t>
-  </si>
-  <si>
-    <t>Dohia上海(京东)成品仓</t>
-  </si>
-  <si>
-    <t>Dohia京东-北京仓</t>
-  </si>
-  <si>
-    <t>Dohia京东-成都仓</t>
-  </si>
-  <si>
-    <t>Dohia京东-德州仓</t>
-  </si>
-  <si>
-    <t>Dohia京东-固安仓</t>
-  </si>
-  <si>
-    <t>Dohia京东-广州仓</t>
-  </si>
-  <si>
-    <t>Dohia京东-上海仓</t>
-  </si>
-  <si>
-    <t>Dohia京东-沈阳仓</t>
-  </si>
-  <si>
-    <t>Dohia京东退货仓</t>
-  </si>
-  <si>
-    <t>Dohia京东-武汉仓</t>
-  </si>
-  <si>
-    <t>Dohia京东-西安仓</t>
-  </si>
-  <si>
-    <t>Dohia唯品会-北京仓</t>
-  </si>
-  <si>
-    <t>Dohia唯品会-成都仓</t>
-  </si>
-  <si>
-    <t>Dohia唯品会-广州仓</t>
-  </si>
-  <si>
-    <t>Dohia唯品会-华中仓</t>
-  </si>
-  <si>
-    <t>Dohia唯品会-上海仓</t>
-  </si>
-  <si>
-    <t>Dohia唯品会-沈阳仓</t>
-  </si>
-  <si>
-    <t>Dohia菜鸟-北京仓</t>
-  </si>
-  <si>
-    <t>Dohia菜鸟-成都仓</t>
-  </si>
-  <si>
-    <t>Dohia菜鸟-惠州仓</t>
-  </si>
-  <si>
-    <t>Dohia菜鸟-无锡仓</t>
-  </si>
-  <si>
-    <t>Dohia菜鸟-武汉仓</t>
-  </si>
-  <si>
-    <t>东莞电商成品仓</t>
-  </si>
-  <si>
-    <t>乐倍康京东自营仓</t>
-  </si>
-  <si>
-    <t>乐倍康电商成品仓</t>
-  </si>
-  <si>
-    <t>长沙产业园套件仓</t>
-  </si>
-  <si>
-    <t>长沙产业园芯类仓</t>
-  </si>
-  <si>
-    <t>长沙产业园电商仓</t>
-  </si>
-  <si>
-    <t>Dohia上海长沙冻结仓</t>
-  </si>
-  <si>
-    <t>Dohia上海（南通）冻结仓</t>
-  </si>
-  <si>
-    <t>美眠康南通成品仓</t>
-  </si>
-  <si>
-    <t>阿里巴巴成品仓</t>
-  </si>
-  <si>
-    <t>Dohia美眠康成品仓</t>
-  </si>
-  <si>
-    <t>乐倍康电商返修仓</t>
-  </si>
-  <si>
-    <t>唯品会JITX仓</t>
-  </si>
-  <si>
-    <t>乐倍康次品仓</t>
-  </si>
-  <si>
-    <t>抖音1店-长沙套件仓</t>
-  </si>
-  <si>
-    <t>抖音1店-长沙芯类仓</t>
-  </si>
-  <si>
-    <t>抖音1店-南通多喜爱仓</t>
-  </si>
-  <si>
-    <t>抖音1店-南通美眠康仓</t>
-  </si>
-  <si>
-    <t>抖音2店-长沙套件仓</t>
-  </si>
-  <si>
-    <t>抖音2店-长沙芯类仓</t>
-  </si>
-  <si>
-    <t>抖音2店-南通多喜爱仓</t>
-  </si>
-  <si>
-    <t>抖音2店-南通美眠康仓</t>
-  </si>
-  <si>
-    <t>长沙退货仓</t>
-  </si>
-  <si>
-    <t>南通退货仓</t>
-  </si>
-  <si>
-    <t>丝丝美台州仓</t>
-  </si>
-  <si>
-    <t>装饰画淘宝店长沙仓</t>
-  </si>
-  <si>
-    <t>Dohia南通退货仓</t>
-  </si>
-  <si>
-    <t>抖音3店-南通多喜爱仓</t>
-  </si>
-  <si>
-    <t>抖音3店-长沙套件仓</t>
-  </si>
-  <si>
-    <t>丝丝美仓</t>
-  </si>
-  <si>
-    <t>Dohia-猫超</t>
-  </si>
-  <si>
-    <t>抖音4店-长沙仓</t>
-  </si>
-  <si>
-    <t>抖音4店-南通仓</t>
-  </si>
-  <si>
-    <t>南通残次仓</t>
-  </si>
-  <si>
-    <t>抖音快乐购-长沙仓</t>
-  </si>
-  <si>
-    <t>抖音快乐购-南通仓</t>
-  </si>
-  <si>
-    <t>淘分销店-长沙仓</t>
-  </si>
-  <si>
-    <t>淘分销店-南通仓</t>
-  </si>
-  <si>
-    <t>快手小店-长沙仓</t>
-  </si>
-  <si>
-    <t>快手小店-南通仓</t>
-  </si>
-  <si>
-    <t>抖音5店-南通仓</t>
-  </si>
-  <si>
-    <t>抖音5店-长沙仓</t>
-  </si>
-  <si>
-    <t>抖音6店-南通仓</t>
-  </si>
-  <si>
-    <t>抖音6店-长沙套件仓</t>
-  </si>
-  <si>
-    <t>gsn</t>
-  </si>
-  <si>
-    <t>goods_name</t>
-  </si>
-  <si>
-    <t>sum(order_goods.goods_number)</t>
-  </si>
-  <si>
-    <t>114021415390250</t>
-  </si>
-  <si>
-    <t>171237粉红弗洛拉</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>114021423600150</t>
@@ -378,11 +381,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,8 +394,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -419,6 +428,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -427,18 +443,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -446,6 +455,21 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -465,6 +489,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -473,19 +504,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -499,43 +521,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,6 +542,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -564,85 +573,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,13 +729,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,80 +751,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -752,11 +761,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,23 +779,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,6 +804,56 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -823,179 +873,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,14 +1030,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1067,6 +1091,15 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1342,7 +1375,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="17.1634615384615" customWidth="1"/>
+    <col min="1" max="1" width="29.5384615384615" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1358,10 +1391,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2036,7 +2072,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>83</v>
@@ -2047,167 +2083,167 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/2调整单接口/ycd.xlsx
+++ b/2调整单接口/ycd.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14960"/>
+    <workbookView windowWidth="32100" windowHeight="16740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
   <si>
     <t>SKU</t>
   </si>
@@ -24,7 +28,10 @@
     <t>SL</t>
   </si>
   <si>
-    <t>114021455310330</t>
+    <t>114021449870330</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>总仓</t>
@@ -255,143 +262,67 @@
     <t>抖音6店-长沙套件仓</t>
   </si>
   <si>
-    <t>gsn</t>
-  </si>
-  <si>
-    <t>goods_name</t>
-  </si>
-  <si>
-    <t>sum(order_goods.goods_number)</t>
-  </si>
-  <si>
-    <t>114021415390250</t>
-  </si>
-  <si>
-    <t>171237粉红弗洛拉</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>114021419670430</t>
-  </si>
-  <si>
-    <t>114021423600150</t>
-  </si>
-  <si>
-    <t>171248赫尔辛格II</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>114021423670150</t>
-  </si>
-  <si>
-    <t>211110摩卡</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>114021423960150</t>
-  </si>
-  <si>
-    <t>211147心彩</t>
-  </si>
-  <si>
-    <t>115011324010250</t>
-  </si>
-  <si>
-    <t>202443丽莎提花拉链款大豆子母被</t>
-  </si>
-  <si>
-    <t>115020000510460</t>
-  </si>
-  <si>
-    <t>203134乐享绗绣对枕HⅡ</t>
-  </si>
-  <si>
-    <t>116011325930420</t>
-  </si>
-  <si>
-    <t>192132倾城夏日夏薄被</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>116011329930420</t>
-  </si>
-  <si>
-    <t>212232赫尔辛格夏薄被</t>
-  </si>
-  <si>
-    <t>116011330220420</t>
-  </si>
-  <si>
-    <t>212274缤果夏薄被</t>
-  </si>
-  <si>
-    <t>116011331200430</t>
-  </si>
-  <si>
-    <t>212050莓莓果果夏薄被</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>116011334190430</t>
-  </si>
-  <si>
-    <t>212377甜蜜初遇夏薄被</t>
-  </si>
-  <si>
-    <t>116011388600130</t>
-  </si>
-  <si>
-    <t>218201彩色仙人掌冰丝席</t>
-  </si>
-  <si>
-    <t>116020000080870</t>
-  </si>
-  <si>
-    <t>204036多彩水洗立高软垫Ⅱ（绅士灰）</t>
-  </si>
-  <si>
-    <t>116021341080850</t>
-  </si>
-  <si>
-    <t>204028艾森可水洗防滑保护垫</t>
-  </si>
-  <si>
-    <t>116021341320820</t>
-  </si>
-  <si>
-    <t>116021341340830</t>
-  </si>
-  <si>
-    <t>204035多彩水洗立高软垫Ⅱ（鹅黄）</t>
+    <t>{'status': 'api-success', 'message': 'success', 'data': []}</t>
+  </si>
+  <si>
+    <t>114021423380330</t>
+  </si>
+  <si>
+    <t>114021415060250</t>
+  </si>
+  <si>
+    <t>114021415390150</t>
+  </si>
+  <si>
+    <t>114021452990320</t>
+  </si>
+  <si>
+    <t>114021455150330</t>
+  </si>
+  <si>
+    <t>114021458660330</t>
+  </si>
+  <si>
+    <t>116040001510420</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -400,37 +331,71 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -438,29 +403,66 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -468,97 +470,24 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,19 +496,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,163 +622,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,11 +717,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,24 +765,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -833,21 +780,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -855,6 +787,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,232 +815,252 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+  <cellStyles count="50">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="样式 1" xfId="1"/>
+    <cellStyle name="60% - Accent6" xfId="2" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="3" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="4" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="5" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="6" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="7" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="9" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="10" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="11" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="14" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="15" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="17" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="18" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="21" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="22" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="23" builtinId="32"/>
+    <cellStyle name="Bad" xfId="24" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="25" builtinId="42"/>
+    <cellStyle name="Total" xfId="26" builtinId="25"/>
+    <cellStyle name="Output" xfId="27" builtinId="21"/>
+    <cellStyle name="Currency" xfId="28" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="29" builtinId="38"/>
+    <cellStyle name="Note" xfId="30" builtinId="10"/>
+    <cellStyle name="Input" xfId="31" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="32" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="33" builtinId="22"/>
+    <cellStyle name="Good" xfId="34" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="35" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="36" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="37" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="38" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="41" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="42" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1375,30 +1336,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="29.5384615384615" customWidth="1"/>
+    <col min="1" max="1" width="29.5390625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="25.15625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3"/>
+    <col min="4" max="4" width="17.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
-        <v>21</v>
+      <c r="B2" s="11" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1409,13 +1371,13 @@
   <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B76"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.234375" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="17.4615384615385" customWidth="1"/>
-    <col min="2" max="2" width="28.7692307692308" customWidth="1"/>
+    <col min="1" max="1" width="17.4609375" customWidth="1"/>
+    <col min="2" max="2" width="28.765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1423,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1431,7 +1393,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1439,7 +1401,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1447,7 +1409,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1455,7 +1417,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1463,7 +1425,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1471,7 +1433,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1479,7 +1441,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1487,7 +1449,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1495,7 +1457,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1503,7 +1465,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1511,7 +1473,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1519,7 +1481,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1527,7 +1489,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1535,7 +1497,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1543,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1551,7 +1513,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1559,7 +1521,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1567,7 +1529,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1575,7 +1537,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1583,7 +1545,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1591,7 +1553,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1599,7 +1561,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1607,7 +1569,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1615,7 +1577,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1623,7 +1585,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1631,7 +1593,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1639,7 +1601,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1647,7 +1609,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1655,7 +1617,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1663,7 +1625,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1671,7 +1633,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1679,7 +1641,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1687,7 +1649,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1695,7 +1657,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1703,7 +1665,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1711,7 +1673,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1719,7 +1681,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1727,7 +1689,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1735,7 +1697,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1743,7 +1705,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1751,7 +1713,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1759,7 +1721,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1767,7 +1729,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1775,7 +1737,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1783,7 +1745,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1791,7 +1753,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1799,7 +1761,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1807,7 +1769,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1815,7 +1777,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1823,7 +1785,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1831,7 +1793,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1839,7 +1801,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1847,7 +1809,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1855,7 +1817,7 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1863,7 +1825,7 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1871,7 +1833,7 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1879,7 +1841,7 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1887,7 +1849,7 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1895,7 +1857,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1903,7 +1865,7 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1911,7 +1873,7 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1919,7 +1881,7 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1927,7 +1889,7 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1935,7 +1897,7 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1943,7 +1905,7 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1951,7 +1913,7 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1959,7 +1921,7 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1967,7 +1929,7 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1975,7 +1937,7 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1983,7 +1945,7 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1991,7 +1953,7 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1999,7 +1961,7 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2007,7 +1969,7 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2015,7 +1977,7 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2023,7 +1985,7 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2035,216 +1997,918 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:B160"/>
+  <sheetViews>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.234375" defaultRowHeight="14" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="50.4609375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.15625" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A1" sqref="$A1:$XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.234375" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17.4615384615385" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.3076923076923" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1538461538462" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" ht="16.8" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="2">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" ht="16.8" spans="1:3">
+      <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" ht="16.8" spans="1:3">
+      <c r="A3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" ht="16.8" spans="1:3">
+      <c r="A4" s="13" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" ht="16.8" spans="1:3">
+      <c r="A5" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" ht="16.8" spans="1:3">
+      <c r="A6" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" ht="16.8" spans="1:3">
+      <c r="A7" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
